--- a/public/Risk_Template.xlsx
+++ b/public/Risk_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harms\OneDrive\Desktop\Work\DMS Tau5\dms_demo_tau5\backend\src\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harms\Desktop\CH_FILES\Development\dms_demo_tau5\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8E1EA-1F5D-447E-A770-39DD09E7195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A623364-82C1-4DAA-9CAA-148C4C954981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="16440" tabRatio="683" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Revisions" sheetId="15" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_EFF">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'#Ref'!$A$1:$H$4657</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0. Revisions'!$B$5:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. General Information'!$B$5:$AV$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. General Information'!$B$5:$AU$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Standard Information'!$B$5:$K$169</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3. General Risk Register'!$B$5:$G$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4. General JRA Evnts and Ctrls'!$B$5:$F$176</definedName>
@@ -33,7 +33,7 @@
     <definedName name="_SAFEGRP">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'#Ref'!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0. Revisions'!$A$1:$G$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1. General Information'!$A:$AW</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1. General Information'!$A:$AV</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Standard Information'!$A$1:$L$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3. General Risk Register'!$A$1:$H$104</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'4. General JRA Evnts and Ctrls'!$A$1:$G$177</definedName>
@@ -104,19 +104,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <futureMetadata name="XLRICHVALUE" count="9">
     <bk>
       <extLst>
@@ -182,45 +172,40 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <cellMetadata count="1">
+  <valueMetadata count="9">
     <bk>
       <rc t="1" v="0"/>
     </bk>
-  </cellMetadata>
-  <valueMetadata count="9">
     <bk>
-      <rc t="2" v="0"/>
+      <rc t="1" v="1"/>
     </bk>
     <bk>
-      <rc t="2" v="1"/>
+      <rc t="1" v="2"/>
     </bk>
     <bk>
-      <rc t="2" v="2"/>
+      <rc t="1" v="3"/>
     </bk>
     <bk>
-      <rc t="2" v="3"/>
+      <rc t="1" v="4"/>
     </bk>
     <bk>
-      <rc t="2" v="4"/>
+      <rc t="1" v="5"/>
     </bk>
     <bk>
-      <rc t="2" v="5"/>
+      <rc t="1" v="6"/>
     </bk>
     <bk>
-      <rc t="2" v="6"/>
+      <rc t="1" v="7"/>
     </bk>
     <bk>
-      <rc t="2" v="7"/>
-    </bk>
-    <bk>
-      <rc t="2" v="8"/>
+      <rc t="1" v="8"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="378">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1266,24 +1251,9 @@
     <t>Sub Task Steps/ Controls</t>
   </si>
   <si>
-    <t>Aim</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Section / Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The aim of the document is </t>
-  </si>
-  <si>
     <t>Specific Consequence Addressed</t>
   </si>
   <si>
-    <t>In-App Guidance Text</t>
-  </si>
-  <si>
     <t>Hazard/ Energy Release (Generic Energy Hazard)</t>
   </si>
   <si>
@@ -1293,9 +1263,6 @@
     <t>Hazard/ Energy Release</t>
   </si>
   <si>
-    <t xml:space="preserve">The scope of the document is </t>
-  </si>
-  <si>
     <t xml:space="preserve">Safety (S) </t>
   </si>
   <si>
@@ -1369,6 +1336,12 @@
   </si>
   <si>
     <t>Main Task Step</t>
+  </si>
+  <si>
+    <t>Control Category</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3804,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -4277,7 +4250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -4294,8 +4267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87949" y="59055"/>
-          <a:ext cx="8753156" cy="714375"/>
+          <a:off x="86292" y="59055"/>
+          <a:ext cx="10780491" cy="713712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5871,11 +5844,11 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF7EAC89"/>
   </sheetPr>
-  <dimension ref="B1:AV102"/>
+  <dimension ref="B1:AV176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="62" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="62" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5924,25 +5897,31 @@
     <col min="42" max="42" width="3.85546875" style="66" customWidth="1"/>
     <col min="43" max="43" width="22.85546875" style="66" customWidth="1"/>
     <col min="44" max="44" width="22.140625" style="66" customWidth="1"/>
-    <col min="45" max="45" width="2.42578125" style="66" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.85546875" style="66" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="22.85546875" style="66" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="32.5703125" style="66" hidden="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.85546875" style="66"/>
+    <col min="45" max="45" width="2.42578125" style="66" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.85546875" style="8" customWidth="1"/>
+    <col min="48" max="16384" width="8.85546875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:47" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="2:48" s="1" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+    </row>
+    <row r="2" spans="2:47" s="1" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:48" s="1" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:48" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+    </row>
+    <row r="3" spans="2:47" s="1" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+    </row>
+    <row r="4" spans="2:47" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="116" t="s">
         <v>8</v>
       </c>
@@ -5950,7 +5929,7 @@
       <c r="D4" s="116"/>
       <c r="E4" s="116"/>
       <c r="G4" s="116" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H4" s="116"/>
       <c r="I4" s="116"/>
@@ -5976,7 +5955,7 @@
       <c r="Y4" s="67"/>
       <c r="Z4" s="67"/>
       <c r="AB4" s="67" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AC4" s="67"/>
       <c r="AD4" s="67"/>
@@ -5999,13 +5978,12 @@
       </c>
       <c r="AQ4" s="116"/>
       <c r="AR4" s="116"/>
-      <c r="AT4" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-    </row>
-    <row r="5" spans="2:48" s="84" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT4" s="112" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU4" s="112"/>
+    </row>
+    <row r="5" spans="2:47" s="84" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J5" s="68" t="s">
         <v>18</v>
@@ -6106,17 +6084,14 @@
       <c r="AR5" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="AT5" s="70" t="s">
+      <c r="AT5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="AV5" s="68" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AU5" s="77" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -6151,18 +6126,10 @@
       <c r="AP6" s="73"/>
       <c r="AQ6" s="72"/>
       <c r="AR6" s="72"/>
-      <c r="AT6" s="73" cm="1">
-        <f t="array" ref="AT6:AT7">IFERROR(_xlfn.SEQUENCE(COUNTA(AU6:AU1048576)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="AU6" s="72" t="s">
-        <v>347</v>
-      </c>
-      <c r="AV6" s="72" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -6197,17 +6164,10 @@
       <c r="AP7" s="73"/>
       <c r="AQ7" s="72"/>
       <c r="AR7" s="72"/>
-      <c r="AT7" s="73">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="AV7" s="72" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
@@ -6242,11 +6202,10 @@
       <c r="AP8" s="73"/>
       <c r="AQ8" s="72"/>
       <c r="AR8" s="72"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-    </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+    </row>
+    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -6281,11 +6240,10 @@
       <c r="AP9" s="73"/>
       <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-    </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -6320,11 +6278,10 @@
       <c r="AP10" s="73"/>
       <c r="AQ10" s="72"/>
       <c r="AR10" s="72"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-    </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
@@ -6359,11 +6316,10 @@
       <c r="AP11" s="73"/>
       <c r="AQ11" s="72"/>
       <c r="AR11" s="72"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-    </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -6398,11 +6354,10 @@
       <c r="AP12" s="73"/>
       <c r="AQ12" s="72"/>
       <c r="AR12" s="72"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-    </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+    </row>
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
@@ -6437,11 +6392,10 @@
       <c r="AP13" s="73"/>
       <c r="AQ13" s="72"/>
       <c r="AR13" s="72"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+    </row>
+    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -6476,11 +6430,10 @@
       <c r="AP14" s="73"/>
       <c r="AQ14" s="72"/>
       <c r="AR14" s="72"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-    </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -6515,11 +6468,10 @@
       <c r="AP15" s="73"/>
       <c r="AQ15" s="72"/>
       <c r="AR15" s="72"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-    </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B16" s="71"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
@@ -6553,11 +6505,10 @@
       <c r="AP16" s="73"/>
       <c r="AQ16" s="72"/>
       <c r="AR16" s="72"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-    </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="86"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
@@ -6592,11 +6543,10 @@
       <c r="AP17" s="73"/>
       <c r="AQ17" s="72"/>
       <c r="AR17" s="72"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-    </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT17" s="86"/>
+      <c r="AU17" s="86"/>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
@@ -6631,11 +6581,10 @@
       <c r="AP18" s="73"/>
       <c r="AQ18" s="72"/>
       <c r="AR18" s="72"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-    </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="86"/>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -6670,11 +6619,10 @@
       <c r="AP19" s="73"/>
       <c r="AQ19" s="72"/>
       <c r="AR19" s="72"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-    </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
@@ -6709,11 +6657,10 @@
       <c r="AP20" s="73"/>
       <c r="AQ20" s="72"/>
       <c r="AR20" s="72"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-    </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
@@ -6748,11 +6695,10 @@
       <c r="AP21" s="73"/>
       <c r="AQ21" s="72"/>
       <c r="AR21" s="72"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-    </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="86"/>
+    </row>
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -6787,11 +6733,10 @@
       <c r="AP22" s="73"/>
       <c r="AQ22" s="72"/>
       <c r="AR22" s="72"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-    </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="86"/>
+    </row>
+    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
@@ -6826,11 +6771,10 @@
       <c r="AP23" s="73"/>
       <c r="AQ23" s="72"/>
       <c r="AR23" s="72"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-    </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="86"/>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -6865,11 +6809,10 @@
       <c r="AP24" s="73"/>
       <c r="AQ24" s="72"/>
       <c r="AR24" s="72"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-    </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="86"/>
+    </row>
+    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
@@ -6904,11 +6847,10 @@
       <c r="AP25" s="73"/>
       <c r="AQ25" s="72"/>
       <c r="AR25" s="72"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-    </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="86"/>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -6943,11 +6885,10 @@
       <c r="AP26" s="73"/>
       <c r="AQ26" s="72"/>
       <c r="AR26" s="72"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-    </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="86"/>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -6982,11 +6923,10 @@
       <c r="AP27" s="73"/>
       <c r="AQ27" s="72"/>
       <c r="AR27" s="72"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-    </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="86"/>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -7021,11 +6961,10 @@
       <c r="AP28" s="73"/>
       <c r="AQ28" s="72"/>
       <c r="AR28" s="72"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-    </row>
-    <row r="29" spans="2:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="86"/>
+    </row>
+    <row r="29" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -7060,11 +6999,10 @@
       <c r="AP29" s="73"/>
       <c r="AQ29" s="72"/>
       <c r="AR29" s="72"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="72"/>
-    </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="86"/>
+    </row>
+    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -7099,11 +7037,10 @@
       <c r="AP30" s="73"/>
       <c r="AQ30" s="72"/>
       <c r="AR30" s="72"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-    </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="86"/>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -7138,11 +7075,10 @@
       <c r="AP31" s="73"/>
       <c r="AQ31" s="72"/>
       <c r="AR31" s="72"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-    </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="86"/>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -7177,11 +7113,10 @@
       <c r="AP32" s="73"/>
       <c r="AQ32" s="72"/>
       <c r="AR32" s="72"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-    </row>
-    <row r="33" spans="2:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+    </row>
+    <row r="33" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
@@ -7216,11 +7151,10 @@
       <c r="AP33" s="73"/>
       <c r="AQ33" s="72"/>
       <c r="AR33" s="72"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-    </row>
-    <row r="34" spans="2:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT33" s="86"/>
+      <c r="AU33" s="86"/>
+    </row>
+    <row r="34" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="71"/>
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
@@ -7255,11 +7189,10 @@
       <c r="AP34" s="73"/>
       <c r="AQ34" s="72"/>
       <c r="AR34" s="72"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-    </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT34" s="86"/>
+      <c r="AU34" s="86"/>
+    </row>
+    <row r="35" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -7294,11 +7227,10 @@
       <c r="AP35" s="73"/>
       <c r="AQ35" s="72"/>
       <c r="AR35" s="72"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-    </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+    </row>
+    <row r="36" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -7333,11 +7265,10 @@
       <c r="AP36" s="73"/>
       <c r="AQ36" s="72"/>
       <c r="AR36" s="72"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-    </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT36" s="86"/>
+      <c r="AU36" s="86"/>
+    </row>
+    <row r="37" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -7372,11 +7303,10 @@
       <c r="AP37" s="73"/>
       <c r="AQ37" s="72"/>
       <c r="AR37" s="72"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="72"/>
-      <c r="AV37" s="72"/>
-    </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT37" s="86"/>
+      <c r="AU37" s="86"/>
+    </row>
+    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -7411,11 +7341,10 @@
       <c r="AP38" s="73"/>
       <c r="AQ38" s="72"/>
       <c r="AR38" s="72"/>
-      <c r="AT38" s="73"/>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="72"/>
-    </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+    </row>
+    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -7450,11 +7379,10 @@
       <c r="AP39" s="73"/>
       <c r="AQ39" s="72"/>
       <c r="AR39" s="72"/>
-      <c r="AT39" s="73"/>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-    </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+    </row>
+    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -7489,11 +7417,10 @@
       <c r="AP40" s="73"/>
       <c r="AQ40" s="72"/>
       <c r="AR40" s="72"/>
-      <c r="AT40" s="73"/>
-      <c r="AU40" s="72"/>
-      <c r="AV40" s="72"/>
-    </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+    </row>
+    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -7528,11 +7455,10 @@
       <c r="AP41" s="73"/>
       <c r="AQ41" s="72"/>
       <c r="AR41" s="72"/>
-      <c r="AT41" s="73"/>
-      <c r="AU41" s="72"/>
-      <c r="AV41" s="72"/>
-    </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+    </row>
+    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
@@ -7567,11 +7493,10 @@
       <c r="AP42" s="73"/>
       <c r="AQ42" s="72"/>
       <c r="AR42" s="72"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="72"/>
-      <c r="AV42" s="72"/>
-    </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+    </row>
+    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
@@ -7606,11 +7531,10 @@
       <c r="AP43" s="73"/>
       <c r="AQ43" s="72"/>
       <c r="AR43" s="72"/>
-      <c r="AT43" s="73"/>
-      <c r="AU43" s="72"/>
-      <c r="AV43" s="72"/>
-    </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+    </row>
+    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
@@ -7645,11 +7569,10 @@
       <c r="AP44" s="73"/>
       <c r="AQ44" s="72"/>
       <c r="AR44" s="72"/>
-      <c r="AT44" s="73"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-    </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+    </row>
+    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
@@ -7684,11 +7607,10 @@
       <c r="AP45" s="73"/>
       <c r="AQ45" s="72"/>
       <c r="AR45" s="72"/>
-      <c r="AT45" s="73"/>
-      <c r="AU45" s="72"/>
-      <c r="AV45" s="72"/>
-    </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+    </row>
+    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
@@ -7723,11 +7645,10 @@
       <c r="AP46" s="73"/>
       <c r="AQ46" s="72"/>
       <c r="AR46" s="72"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-    </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+    </row>
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
@@ -7762,11 +7683,10 @@
       <c r="AP47" s="73"/>
       <c r="AQ47" s="72"/>
       <c r="AR47" s="72"/>
-      <c r="AT47" s="73"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-    </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="86"/>
+    </row>
+    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
@@ -7801,11 +7721,10 @@
       <c r="AP48" s="73"/>
       <c r="AQ48" s="72"/>
       <c r="AR48" s="72"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="72"/>
-      <c r="AV48" s="72"/>
-    </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT48" s="86"/>
+      <c r="AU48" s="86"/>
+    </row>
+    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
@@ -7840,11 +7759,10 @@
       <c r="AP49" s="73"/>
       <c r="AQ49" s="72"/>
       <c r="AR49" s="72"/>
-      <c r="AT49" s="73"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-    </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+    </row>
+    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
@@ -7879,11 +7797,10 @@
       <c r="AP50" s="73"/>
       <c r="AQ50" s="72"/>
       <c r="AR50" s="72"/>
-      <c r="AT50" s="73"/>
-      <c r="AU50" s="72"/>
-      <c r="AV50" s="72"/>
-    </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+    </row>
+    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B51" s="71"/>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -7918,11 +7835,10 @@
       <c r="AP51" s="73"/>
       <c r="AQ51" s="72"/>
       <c r="AR51" s="72"/>
-      <c r="AT51" s="73"/>
-      <c r="AU51" s="72"/>
-      <c r="AV51" s="72"/>
-    </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="86"/>
+    </row>
+    <row r="52" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -7957,11 +7873,10 @@
       <c r="AP52" s="73"/>
       <c r="AQ52" s="72"/>
       <c r="AR52" s="72"/>
-      <c r="AT52" s="73"/>
-      <c r="AU52" s="72"/>
-      <c r="AV52" s="72"/>
-    </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="86"/>
+    </row>
+    <row r="53" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -7996,11 +7911,10 @@
       <c r="AP53" s="73"/>
       <c r="AQ53" s="72"/>
       <c r="AR53" s="72"/>
-      <c r="AT53" s="73"/>
-      <c r="AU53" s="72"/>
-      <c r="AV53" s="72"/>
-    </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+    </row>
+    <row r="54" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -8035,11 +7949,10 @@
       <c r="AP54" s="73"/>
       <c r="AQ54" s="72"/>
       <c r="AR54" s="72"/>
-      <c r="AT54" s="73"/>
-      <c r="AU54" s="72"/>
-      <c r="AV54" s="72"/>
-    </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+    </row>
+    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
@@ -8074,11 +7987,10 @@
       <c r="AP55" s="73"/>
       <c r="AQ55" s="72"/>
       <c r="AR55" s="72"/>
-      <c r="AT55" s="73"/>
-      <c r="AU55" s="72"/>
-      <c r="AV55" s="72"/>
-    </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT55" s="86"/>
+      <c r="AU55" s="86"/>
+    </row>
+    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
       <c r="D56" s="72"/>
@@ -8112,11 +8024,10 @@
       <c r="AP56" s="73"/>
       <c r="AQ56" s="72"/>
       <c r="AR56" s="72"/>
-      <c r="AT56" s="73"/>
-      <c r="AU56" s="72"/>
-      <c r="AV56" s="72"/>
-    </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT56" s="86"/>
+      <c r="AU56" s="86"/>
+    </row>
+    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
@@ -8151,11 +8062,10 @@
       <c r="AP57" s="73"/>
       <c r="AQ57" s="72"/>
       <c r="AR57" s="72"/>
-      <c r="AT57" s="73"/>
-      <c r="AU57" s="72"/>
-      <c r="AV57" s="72"/>
-    </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT57" s="86"/>
+      <c r="AU57" s="86"/>
+    </row>
+    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
       <c r="D58" s="72"/>
@@ -8190,11 +8100,10 @@
       <c r="AP58" s="73"/>
       <c r="AQ58" s="72"/>
       <c r="AR58" s="72"/>
-      <c r="AT58" s="73"/>
-      <c r="AU58" s="72"/>
-      <c r="AV58" s="72"/>
-    </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT58" s="86"/>
+      <c r="AU58" s="86"/>
+    </row>
+    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
       <c r="D59" s="72"/>
@@ -8229,11 +8138,10 @@
       <c r="AP59" s="73"/>
       <c r="AQ59" s="72"/>
       <c r="AR59" s="72"/>
-      <c r="AT59" s="73"/>
-      <c r="AU59" s="72"/>
-      <c r="AV59" s="72"/>
-    </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT59" s="86"/>
+      <c r="AU59" s="86"/>
+    </row>
+    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="D60" s="72"/>
@@ -8268,11 +8176,10 @@
       <c r="AP60" s="73"/>
       <c r="AQ60" s="72"/>
       <c r="AR60" s="72"/>
-      <c r="AT60" s="73"/>
-      <c r="AU60" s="72"/>
-      <c r="AV60" s="72"/>
-    </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT60" s="86"/>
+      <c r="AU60" s="86"/>
+    </row>
+    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="D61" s="72"/>
@@ -8307,11 +8214,10 @@
       <c r="AP61" s="73"/>
       <c r="AQ61" s="72"/>
       <c r="AR61" s="72"/>
-      <c r="AT61" s="73"/>
-      <c r="AU61" s="72"/>
-      <c r="AV61" s="72"/>
-    </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT61" s="86"/>
+      <c r="AU61" s="86"/>
+    </row>
+    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
@@ -8346,11 +8252,10 @@
       <c r="AP62" s="73"/>
       <c r="AQ62" s="72"/>
       <c r="AR62" s="72"/>
-      <c r="AT62" s="73"/>
-      <c r="AU62" s="72"/>
-      <c r="AV62" s="72"/>
-    </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT62" s="86"/>
+      <c r="AU62" s="86"/>
+    </row>
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
@@ -8385,11 +8290,10 @@
       <c r="AP63" s="73"/>
       <c r="AQ63" s="72"/>
       <c r="AR63" s="72"/>
-      <c r="AT63" s="73"/>
-      <c r="AU63" s="72"/>
-      <c r="AV63" s="72"/>
-    </row>
-    <row r="64" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT63" s="86"/>
+      <c r="AU63" s="86"/>
+    </row>
+    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
@@ -8424,11 +8328,10 @@
       <c r="AP64" s="73"/>
       <c r="AQ64" s="72"/>
       <c r="AR64" s="72"/>
-      <c r="AT64" s="73"/>
-      <c r="AU64" s="72"/>
-      <c r="AV64" s="72"/>
-    </row>
-    <row r="65" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT64" s="86"/>
+      <c r="AU64" s="86"/>
+    </row>
+    <row r="65" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
@@ -8463,11 +8366,10 @@
       <c r="AP65" s="73"/>
       <c r="AQ65" s="72"/>
       <c r="AR65" s="72"/>
-      <c r="AT65" s="73"/>
-      <c r="AU65" s="72"/>
-      <c r="AV65" s="72"/>
-    </row>
-    <row r="66" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT65" s="86"/>
+      <c r="AU65" s="86"/>
+    </row>
+    <row r="66" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="D66" s="72"/>
@@ -8502,11 +8404,10 @@
       <c r="AP66" s="73"/>
       <c r="AQ66" s="72"/>
       <c r="AR66" s="72"/>
-      <c r="AT66" s="73"/>
-      <c r="AU66" s="72"/>
-      <c r="AV66" s="72"/>
-    </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT66" s="86"/>
+      <c r="AU66" s="86"/>
+    </row>
+    <row r="67" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="D67" s="72"/>
@@ -8541,11 +8442,10 @@
       <c r="AP67" s="73"/>
       <c r="AQ67" s="72"/>
       <c r="AR67" s="72"/>
-      <c r="AT67" s="73"/>
-      <c r="AU67" s="72"/>
-      <c r="AV67" s="72"/>
-    </row>
-    <row r="68" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT67" s="86"/>
+      <c r="AU67" s="86"/>
+    </row>
+    <row r="68" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
       <c r="D68" s="72"/>
@@ -8580,11 +8480,10 @@
       <c r="AP68" s="73"/>
       <c r="AQ68" s="72"/>
       <c r="AR68" s="72"/>
-      <c r="AT68" s="73"/>
-      <c r="AU68" s="72"/>
-      <c r="AV68" s="72"/>
-    </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT68" s="86"/>
+      <c r="AU68" s="86"/>
+    </row>
+    <row r="69" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="D69" s="72"/>
@@ -8619,11 +8518,10 @@
       <c r="AP69" s="73"/>
       <c r="AQ69" s="72"/>
       <c r="AR69" s="72"/>
-      <c r="AT69" s="73"/>
-      <c r="AU69" s="72"/>
-      <c r="AV69" s="72"/>
-    </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT69" s="86"/>
+      <c r="AU69" s="86"/>
+    </row>
+    <row r="70" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
       <c r="D70" s="72"/>
@@ -8658,11 +8556,10 @@
       <c r="AP70" s="73"/>
       <c r="AQ70" s="72"/>
       <c r="AR70" s="72"/>
-      <c r="AT70" s="73"/>
-      <c r="AU70" s="72"/>
-      <c r="AV70" s="72"/>
-    </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT70" s="86"/>
+      <c r="AU70" s="86"/>
+    </row>
+    <row r="71" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B71" s="71"/>
       <c r="C71" s="72"/>
       <c r="D71" s="72"/>
@@ -8697,11 +8594,10 @@
       <c r="AP71" s="73"/>
       <c r="AQ71" s="72"/>
       <c r="AR71" s="72"/>
-      <c r="AT71" s="73"/>
-      <c r="AU71" s="72"/>
-      <c r="AV71" s="72"/>
-    </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT71" s="86"/>
+      <c r="AU71" s="86"/>
+    </row>
+    <row r="72" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B72" s="71"/>
       <c r="C72" s="72"/>
       <c r="D72" s="72"/>
@@ -8736,11 +8632,10 @@
       <c r="AP72" s="73"/>
       <c r="AQ72" s="72"/>
       <c r="AR72" s="72"/>
-      <c r="AT72" s="73"/>
-      <c r="AU72" s="72"/>
-      <c r="AV72" s="72"/>
-    </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT72" s="86"/>
+      <c r="AU72" s="86"/>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B73" s="71"/>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
@@ -8775,11 +8670,10 @@
       <c r="AP73" s="73"/>
       <c r="AQ73" s="72"/>
       <c r="AR73" s="72"/>
-      <c r="AT73" s="73"/>
-      <c r="AU73" s="72"/>
-      <c r="AV73" s="72"/>
-    </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT73" s="86"/>
+      <c r="AU73" s="86"/>
+    </row>
+    <row r="74" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B74" s="71"/>
       <c r="C74" s="72"/>
       <c r="D74" s="72"/>
@@ -8814,11 +8708,10 @@
       <c r="AP74" s="73"/>
       <c r="AQ74" s="72"/>
       <c r="AR74" s="72"/>
-      <c r="AT74" s="73"/>
-      <c r="AU74" s="72"/>
-      <c r="AV74" s="72"/>
-    </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT74" s="86"/>
+      <c r="AU74" s="86"/>
+    </row>
+    <row r="75" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
@@ -8853,11 +8746,10 @@
       <c r="AP75" s="73"/>
       <c r="AQ75" s="72"/>
       <c r="AR75" s="72"/>
-      <c r="AT75" s="73"/>
-      <c r="AU75" s="72"/>
-      <c r="AV75" s="72"/>
-    </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT75" s="86"/>
+      <c r="AU75" s="86"/>
+    </row>
+    <row r="76" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B76" s="71"/>
       <c r="C76" s="72"/>
       <c r="D76" s="72"/>
@@ -8892,11 +8784,10 @@
       <c r="AP76" s="73"/>
       <c r="AQ76" s="72"/>
       <c r="AR76" s="72"/>
-      <c r="AT76" s="73"/>
-      <c r="AU76" s="72"/>
-      <c r="AV76" s="72"/>
-    </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT76" s="86"/>
+      <c r="AU76" s="86"/>
+    </row>
+    <row r="77" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B77" s="71"/>
       <c r="C77" s="72"/>
       <c r="D77" s="72"/>
@@ -8931,11 +8822,10 @@
       <c r="AP77" s="73"/>
       <c r="AQ77" s="72"/>
       <c r="AR77" s="72"/>
-      <c r="AT77" s="73"/>
-      <c r="AU77" s="72"/>
-      <c r="AV77" s="72"/>
-    </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT77" s="86"/>
+      <c r="AU77" s="86"/>
+    </row>
+    <row r="78" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B78" s="71"/>
       <c r="C78" s="72"/>
       <c r="D78" s="72"/>
@@ -8970,11 +8860,10 @@
       <c r="AP78" s="73"/>
       <c r="AQ78" s="72"/>
       <c r="AR78" s="72"/>
-      <c r="AT78" s="73"/>
-      <c r="AU78" s="72"/>
-      <c r="AV78" s="72"/>
-    </row>
-    <row r="79" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT78" s="86"/>
+      <c r="AU78" s="86"/>
+    </row>
+    <row r="79" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B79" s="71"/>
       <c r="C79" s="72"/>
       <c r="D79" s="72"/>
@@ -9009,11 +8898,10 @@
       <c r="AP79" s="73"/>
       <c r="AQ79" s="72"/>
       <c r="AR79" s="72"/>
-      <c r="AT79" s="73"/>
-      <c r="AU79" s="72"/>
-      <c r="AV79" s="72"/>
-    </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT79" s="86"/>
+      <c r="AU79" s="86"/>
+    </row>
+    <row r="80" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B80" s="71"/>
       <c r="C80" s="72"/>
       <c r="D80" s="72"/>
@@ -9048,11 +8936,10 @@
       <c r="AP80" s="73"/>
       <c r="AQ80" s="72"/>
       <c r="AR80" s="72"/>
-      <c r="AT80" s="73"/>
-      <c r="AU80" s="72"/>
-      <c r="AV80" s="72"/>
-    </row>
-    <row r="81" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT80" s="86"/>
+      <c r="AU80" s="86"/>
+    </row>
+    <row r="81" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B81" s="71"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -9087,11 +8974,10 @@
       <c r="AP81" s="73"/>
       <c r="AQ81" s="72"/>
       <c r="AR81" s="72"/>
-      <c r="AT81" s="73"/>
-      <c r="AU81" s="72"/>
-      <c r="AV81" s="72"/>
-    </row>
-    <row r="82" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT81" s="86"/>
+      <c r="AU81" s="86"/>
+    </row>
+    <row r="82" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B82" s="71"/>
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
@@ -9126,11 +9012,10 @@
       <c r="AP82" s="73"/>
       <c r="AQ82" s="72"/>
       <c r="AR82" s="72"/>
-      <c r="AT82" s="73"/>
-      <c r="AU82" s="72"/>
-      <c r="AV82" s="72"/>
-    </row>
-    <row r="83" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT82" s="86"/>
+      <c r="AU82" s="86"/>
+    </row>
+    <row r="83" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B83" s="71"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
@@ -9165,11 +9050,10 @@
       <c r="AP83" s="73"/>
       <c r="AQ83" s="72"/>
       <c r="AR83" s="72"/>
-      <c r="AT83" s="73"/>
-      <c r="AU83" s="72"/>
-      <c r="AV83" s="72"/>
-    </row>
-    <row r="84" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT83" s="86"/>
+      <c r="AU83" s="86"/>
+    </row>
+    <row r="84" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B84" s="71"/>
       <c r="C84" s="72"/>
       <c r="D84" s="72"/>
@@ -9204,11 +9088,10 @@
       <c r="AP84" s="73"/>
       <c r="AQ84" s="72"/>
       <c r="AR84" s="72"/>
-      <c r="AT84" s="73"/>
-      <c r="AU84" s="72"/>
-      <c r="AV84" s="72"/>
-    </row>
-    <row r="85" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT84" s="86"/>
+      <c r="AU84" s="86"/>
+    </row>
+    <row r="85" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B85" s="71"/>
       <c r="C85" s="72"/>
       <c r="D85" s="72"/>
@@ -9243,11 +9126,10 @@
       <c r="AP85" s="73"/>
       <c r="AQ85" s="72"/>
       <c r="AR85" s="72"/>
-      <c r="AT85" s="73"/>
-      <c r="AU85" s="72"/>
-      <c r="AV85" s="72"/>
-    </row>
-    <row r="86" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT85" s="86"/>
+      <c r="AU85" s="86"/>
+    </row>
+    <row r="86" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B86" s="71"/>
       <c r="C86" s="72"/>
       <c r="D86" s="72"/>
@@ -9282,11 +9164,10 @@
       <c r="AP86" s="73"/>
       <c r="AQ86" s="72"/>
       <c r="AR86" s="72"/>
-      <c r="AT86" s="73"/>
-      <c r="AU86" s="72"/>
-      <c r="AV86" s="72"/>
-    </row>
-    <row r="87" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT86" s="86"/>
+      <c r="AU86" s="86"/>
+    </row>
+    <row r="87" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
       <c r="D87" s="72"/>
@@ -9321,11 +9202,10 @@
       <c r="AP87" s="73"/>
       <c r="AQ87" s="72"/>
       <c r="AR87" s="72"/>
-      <c r="AT87" s="73"/>
-      <c r="AU87" s="72"/>
-      <c r="AV87" s="72"/>
-    </row>
-    <row r="88" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT87" s="86"/>
+      <c r="AU87" s="86"/>
+    </row>
+    <row r="88" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
@@ -9360,11 +9240,10 @@
       <c r="AP88" s="73"/>
       <c r="AQ88" s="72"/>
       <c r="AR88" s="72"/>
-      <c r="AT88" s="73"/>
-      <c r="AU88" s="72"/>
-      <c r="AV88" s="72"/>
-    </row>
-    <row r="89" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT88" s="86"/>
+      <c r="AU88" s="86"/>
+    </row>
+    <row r="89" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
       <c r="D89" s="72"/>
@@ -9399,11 +9278,10 @@
       <c r="AP89" s="73"/>
       <c r="AQ89" s="72"/>
       <c r="AR89" s="72"/>
-      <c r="AT89" s="73"/>
-      <c r="AU89" s="72"/>
-      <c r="AV89" s="72"/>
-    </row>
-    <row r="90" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT89" s="86"/>
+      <c r="AU89" s="86"/>
+    </row>
+    <row r="90" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
       <c r="D90" s="72"/>
@@ -9438,11 +9316,10 @@
       <c r="AP90" s="73"/>
       <c r="AQ90" s="72"/>
       <c r="AR90" s="72"/>
-      <c r="AT90" s="73"/>
-      <c r="AU90" s="72"/>
-      <c r="AV90" s="72"/>
-    </row>
-    <row r="91" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT90" s="86"/>
+      <c r="AU90" s="86"/>
+    </row>
+    <row r="91" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
       <c r="D91" s="72"/>
@@ -9477,11 +9354,10 @@
       <c r="AP91" s="73"/>
       <c r="AQ91" s="72"/>
       <c r="AR91" s="72"/>
-      <c r="AT91" s="73"/>
-      <c r="AU91" s="72"/>
-      <c r="AV91" s="72"/>
-    </row>
-    <row r="92" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT91" s="86"/>
+      <c r="AU91" s="86"/>
+    </row>
+    <row r="92" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
       <c r="D92" s="72"/>
@@ -9516,11 +9392,10 @@
       <c r="AP92" s="73"/>
       <c r="AQ92" s="72"/>
       <c r="AR92" s="72"/>
-      <c r="AT92" s="73"/>
-      <c r="AU92" s="72"/>
-      <c r="AV92" s="72"/>
-    </row>
-    <row r="93" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT92" s="86"/>
+      <c r="AU92" s="86"/>
+    </row>
+    <row r="93" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B93" s="71"/>
       <c r="C93" s="72"/>
       <c r="D93" s="72"/>
@@ -9555,11 +9430,10 @@
       <c r="AP93" s="73"/>
       <c r="AQ93" s="72"/>
       <c r="AR93" s="72"/>
-      <c r="AT93" s="73"/>
-      <c r="AU93" s="72"/>
-      <c r="AV93" s="72"/>
-    </row>
-    <row r="94" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT93" s="86"/>
+      <c r="AU93" s="86"/>
+    </row>
+    <row r="94" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B94" s="71"/>
       <c r="C94" s="72"/>
       <c r="D94" s="72"/>
@@ -9594,11 +9468,10 @@
       <c r="AP94" s="73"/>
       <c r="AQ94" s="72"/>
       <c r="AR94" s="72"/>
-      <c r="AT94" s="73"/>
-      <c r="AU94" s="72"/>
-      <c r="AV94" s="72"/>
-    </row>
-    <row r="95" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT94" s="86"/>
+      <c r="AU94" s="86"/>
+    </row>
+    <row r="95" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B95" s="71"/>
       <c r="C95" s="72"/>
       <c r="D95" s="72"/>
@@ -9633,11 +9506,10 @@
       <c r="AP95" s="73"/>
       <c r="AQ95" s="72"/>
       <c r="AR95" s="72"/>
-      <c r="AT95" s="73"/>
-      <c r="AU95" s="72"/>
-      <c r="AV95" s="72"/>
-    </row>
-    <row r="96" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT95" s="86"/>
+      <c r="AU95" s="86"/>
+    </row>
+    <row r="96" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B96" s="71"/>
       <c r="C96" s="72"/>
       <c r="D96" s="72"/>
@@ -9672,11 +9544,10 @@
       <c r="AP96" s="73"/>
       <c r="AQ96" s="72"/>
       <c r="AR96" s="72"/>
-      <c r="AT96" s="73"/>
-      <c r="AU96" s="72"/>
-      <c r="AV96" s="72"/>
-    </row>
-    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT96" s="86"/>
+      <c r="AU96" s="86"/>
+    </row>
+    <row r="97" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B97" s="71"/>
       <c r="C97" s="72"/>
       <c r="D97" s="72"/>
@@ -9711,11 +9582,10 @@
       <c r="AP97" s="73"/>
       <c r="AQ97" s="72"/>
       <c r="AR97" s="72"/>
-      <c r="AT97" s="73"/>
-      <c r="AU97" s="72"/>
-      <c r="AV97" s="72"/>
-    </row>
-    <row r="98" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT97" s="86"/>
+      <c r="AU97" s="86"/>
+    </row>
+    <row r="98" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B98" s="71"/>
       <c r="C98" s="72"/>
       <c r="D98" s="72"/>
@@ -9750,11 +9620,10 @@
       <c r="AP98" s="73"/>
       <c r="AQ98" s="72"/>
       <c r="AR98" s="72"/>
-      <c r="AT98" s="73"/>
-      <c r="AU98" s="72"/>
-      <c r="AV98" s="72"/>
-    </row>
-    <row r="99" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT98" s="86"/>
+      <c r="AU98" s="86"/>
+    </row>
+    <row r="99" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B99" s="71"/>
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
@@ -9789,11 +9658,10 @@
       <c r="AP99" s="73"/>
       <c r="AQ99" s="72"/>
       <c r="AR99" s="72"/>
-      <c r="AT99" s="73"/>
-      <c r="AU99" s="72"/>
-      <c r="AV99" s="72"/>
-    </row>
-    <row r="100" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT99" s="86"/>
+      <c r="AU99" s="86"/>
+    </row>
+    <row r="100" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B100" s="71"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -9828,11 +9696,10 @@
       <c r="AP100" s="73"/>
       <c r="AQ100" s="72"/>
       <c r="AR100" s="72"/>
-      <c r="AT100" s="73"/>
-      <c r="AU100" s="72"/>
-      <c r="AV100" s="72"/>
-    </row>
-    <row r="101" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT100" s="86"/>
+      <c r="AU100" s="86"/>
+    </row>
+    <row r="101" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B101" s="71"/>
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
@@ -9867,11 +9734,10 @@
       <c r="AP101" s="73"/>
       <c r="AQ101" s="72"/>
       <c r="AR101" s="72"/>
-      <c r="AT101" s="73"/>
-      <c r="AU101" s="72"/>
-      <c r="AV101" s="72"/>
-    </row>
-    <row r="102" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AT101" s="86"/>
+      <c r="AU101" s="86"/>
+    </row>
+    <row r="102" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B102" s="71"/>
       <c r="C102" s="72"/>
       <c r="D102" s="72"/>
@@ -9906,22 +9772,317 @@
       <c r="AP102" s="73"/>
       <c r="AQ102" s="72"/>
       <c r="AR102" s="72"/>
-      <c r="AT102" s="73"/>
-      <c r="AU102" s="72"/>
-      <c r="AV102" s="72"/>
+      <c r="AT102" s="86"/>
+      <c r="AU102" s="86"/>
+    </row>
+    <row r="103" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT103" s="86"/>
+      <c r="AU103" s="86"/>
+    </row>
+    <row r="104" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT104" s="86"/>
+      <c r="AU104" s="86"/>
+    </row>
+    <row r="105" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT105" s="86"/>
+      <c r="AU105" s="86"/>
+    </row>
+    <row r="106" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT106" s="86"/>
+      <c r="AU106" s="86"/>
+    </row>
+    <row r="107" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT107" s="86"/>
+      <c r="AU107" s="86"/>
+    </row>
+    <row r="108" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT108" s="86"/>
+      <c r="AU108" s="86"/>
+    </row>
+    <row r="109" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT109" s="86"/>
+      <c r="AU109" s="86"/>
+    </row>
+    <row r="110" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT110" s="86"/>
+      <c r="AU110" s="86"/>
+    </row>
+    <row r="111" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT111" s="86"/>
+      <c r="AU111" s="86"/>
+    </row>
+    <row r="112" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AT112" s="86"/>
+      <c r="AU112" s="86"/>
+    </row>
+    <row r="113" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT113" s="86"/>
+      <c r="AU113" s="86"/>
+    </row>
+    <row r="114" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT114" s="86"/>
+      <c r="AU114" s="86"/>
+    </row>
+    <row r="115" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT115" s="86"/>
+      <c r="AU115" s="86"/>
+    </row>
+    <row r="116" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT116" s="86"/>
+      <c r="AU116" s="86"/>
+    </row>
+    <row r="117" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT117" s="86"/>
+      <c r="AU117" s="86"/>
+    </row>
+    <row r="118" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT118" s="86"/>
+      <c r="AU118" s="86"/>
+    </row>
+    <row r="119" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT119" s="86"/>
+      <c r="AU119" s="86"/>
+    </row>
+    <row r="120" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT120" s="86"/>
+      <c r="AU120" s="86"/>
+    </row>
+    <row r="121" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT121" s="86"/>
+      <c r="AU121" s="86"/>
+    </row>
+    <row r="122" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT122" s="86"/>
+      <c r="AU122" s="86"/>
+    </row>
+    <row r="123" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT123" s="86"/>
+      <c r="AU123" s="86"/>
+    </row>
+    <row r="124" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT124" s="86"/>
+      <c r="AU124" s="86"/>
+    </row>
+    <row r="125" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT125" s="86"/>
+      <c r="AU125" s="86"/>
+    </row>
+    <row r="126" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT126" s="86"/>
+      <c r="AU126" s="86"/>
+    </row>
+    <row r="127" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT127" s="86"/>
+      <c r="AU127" s="86"/>
+    </row>
+    <row r="128" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT128" s="86"/>
+      <c r="AU128" s="86"/>
+    </row>
+    <row r="129" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT129" s="86"/>
+      <c r="AU129" s="86"/>
+    </row>
+    <row r="130" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT130" s="86"/>
+      <c r="AU130" s="86"/>
+    </row>
+    <row r="131" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT131" s="86"/>
+      <c r="AU131" s="86"/>
+    </row>
+    <row r="132" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT132" s="86"/>
+      <c r="AU132" s="86"/>
+    </row>
+    <row r="133" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT133" s="86"/>
+      <c r="AU133" s="86"/>
+    </row>
+    <row r="134" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT134" s="86"/>
+      <c r="AU134" s="86"/>
+    </row>
+    <row r="135" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT135" s="86"/>
+      <c r="AU135" s="86"/>
+    </row>
+    <row r="136" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT136" s="86"/>
+      <c r="AU136" s="86"/>
+    </row>
+    <row r="137" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT137" s="86"/>
+      <c r="AU137" s="86"/>
+    </row>
+    <row r="138" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT138" s="86"/>
+      <c r="AU138" s="86"/>
+    </row>
+    <row r="139" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT139" s="86"/>
+      <c r="AU139" s="86"/>
+    </row>
+    <row r="140" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT140" s="86"/>
+      <c r="AU140" s="86"/>
+    </row>
+    <row r="141" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT141" s="86"/>
+      <c r="AU141" s="86"/>
+    </row>
+    <row r="142" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT142" s="86"/>
+      <c r="AU142" s="86"/>
+    </row>
+    <row r="143" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT143" s="86"/>
+      <c r="AU143" s="86"/>
+    </row>
+    <row r="144" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT144" s="86"/>
+      <c r="AU144" s="86"/>
+    </row>
+    <row r="145" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT145" s="86"/>
+      <c r="AU145" s="86"/>
+    </row>
+    <row r="146" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT146" s="86"/>
+      <c r="AU146" s="86"/>
+    </row>
+    <row r="147" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT147" s="86"/>
+      <c r="AU147" s="86"/>
+    </row>
+    <row r="148" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT148" s="86"/>
+      <c r="AU148" s="86"/>
+    </row>
+    <row r="149" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT149" s="86"/>
+      <c r="AU149" s="86"/>
+    </row>
+    <row r="150" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT150" s="86"/>
+      <c r="AU150" s="86"/>
+    </row>
+    <row r="151" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT151" s="86"/>
+      <c r="AU151" s="86"/>
+    </row>
+    <row r="152" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT152" s="86"/>
+      <c r="AU152" s="86"/>
+    </row>
+    <row r="153" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT153" s="86"/>
+      <c r="AU153" s="86"/>
+    </row>
+    <row r="154" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT154" s="86"/>
+      <c r="AU154" s="86"/>
+    </row>
+    <row r="155" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT155" s="86"/>
+      <c r="AU155" s="86"/>
+    </row>
+    <row r="156" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT156" s="86"/>
+      <c r="AU156" s="86"/>
+    </row>
+    <row r="157" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT157" s="86"/>
+      <c r="AU157" s="86"/>
+    </row>
+    <row r="158" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT158" s="86"/>
+      <c r="AU158" s="86"/>
+    </row>
+    <row r="159" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT159" s="86"/>
+      <c r="AU159" s="86"/>
+    </row>
+    <row r="160" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT160" s="86"/>
+      <c r="AU160" s="86"/>
+    </row>
+    <row r="161" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT161" s="86"/>
+      <c r="AU161" s="86"/>
+    </row>
+    <row r="162" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT162" s="86"/>
+      <c r="AU162" s="86"/>
+    </row>
+    <row r="163" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT163" s="86"/>
+      <c r="AU163" s="86"/>
+    </row>
+    <row r="164" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT164" s="86"/>
+      <c r="AU164" s="86"/>
+    </row>
+    <row r="165" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT165" s="86"/>
+      <c r="AU165" s="86"/>
+    </row>
+    <row r="166" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT166" s="86"/>
+      <c r="AU166" s="86"/>
+    </row>
+    <row r="167" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT167" s="86"/>
+      <c r="AU167" s="86"/>
+    </row>
+    <row r="168" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT168" s="86"/>
+      <c r="AU168" s="86"/>
+    </row>
+    <row r="169" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT169" s="86"/>
+      <c r="AU169" s="86"/>
+    </row>
+    <row r="170" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT170" s="86"/>
+      <c r="AU170" s="86"/>
+    </row>
+    <row r="171" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT171" s="86"/>
+      <c r="AU171" s="86"/>
+    </row>
+    <row r="172" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT172" s="86"/>
+      <c r="AU172" s="86"/>
+    </row>
+    <row r="173" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT173" s="86"/>
+      <c r="AU173" s="86"/>
+    </row>
+    <row r="174" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT174" s="86"/>
+      <c r="AU174" s="86"/>
+    </row>
+    <row r="175" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT175" s="86"/>
+      <c r="AU175" s="86"/>
+    </row>
+    <row r="176" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT176" s="86"/>
+      <c r="AU176" s="86"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AV56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AU56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H6:J34">
     <sortCondition ref="H6:H34"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="AT4:AV4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AT4:AU4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="20" priority="250"/>
@@ -10004,7 +10165,7 @@
   </sheetPr>
   <dimension ref="B1:AK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
@@ -10082,7 +10243,7 @@
     </row>
     <row r="4" spans="2:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="112" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
@@ -10094,7 +10255,7 @@
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
       <c r="M4" s="113" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N4" s="113"/>
       <c r="O4" s="113"/>
@@ -10106,7 +10267,7 @@
       <c r="T4" s="113"/>
       <c r="U4" s="113"/>
       <c r="W4" s="113" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="X4" s="113"/>
       <c r="Y4" s="113"/>
@@ -10130,13 +10291,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F5" s="78" t="s">
         <v>26</v>
@@ -10154,7 +10315,7 @@
         <v>39</v>
       </c>
       <c r="K5" s="97" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M5" s="78" t="s">
         <v>9</v>
@@ -10184,7 +10345,7 @@
         <v>9</v>
       </c>
       <c r="X5" s="78" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Y5" s="78" t="s">
         <v>18</v>
@@ -13282,7 +13443,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>24</v>
@@ -14131,15 +14292,15 @@
     <tabColor rgb="FF7EAC89"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F176"/>
+  <dimension ref="B1:I176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4:D4"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -14148,7 +14309,7 @@
     <col min="5" max="5" width="34.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="61" style="10" customWidth="1"/>
     <col min="7" max="7" width="1.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -14186,10 +14347,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>24</v>
@@ -15518,7 +15679,7 @@
     </row>
     <row r="7" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="102" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>234</v>
@@ -15541,7 +15702,7 @@
     </row>
     <row r="8" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="102" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C8" s="92" t="s">
         <v>235</v>
@@ -15564,7 +15725,7 @@
     </row>
     <row r="9" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>236</v>
@@ -15587,7 +15748,7 @@
     </row>
     <row r="10" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="102" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C10" s="92" t="s">
         <v>237</v>
@@ -15610,7 +15771,7 @@
     </row>
     <row r="11" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C11" s="92" t="s">
         <v>238</v>
@@ -16082,7 +16243,7 @@
     </row>
     <row r="2" spans="1:27" s="13" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
@@ -16102,7 +16263,7 @@
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="98" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="20" t="s">
@@ -16134,7 +16295,7 @@
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
@@ -16154,7 +16315,7 @@
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="99" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
@@ -16186,7 +16347,7 @@
     </row>
     <row r="4" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -16204,7 +16365,7 @@
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="100" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="20" t="s">
@@ -16236,7 +16397,7 @@
     </row>
     <row r="5" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -16254,7 +16415,7 @@
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="101" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
@@ -16286,7 +16447,7 @@
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -16333,7 +16494,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="30" t="s">
@@ -16376,7 +16537,7 @@
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="30" t="s">
